--- a/6.Text_Mining/Naive_Bayes_from_scratch.xlsx
+++ b/6.Text_Mining/Naive_Bayes_from_scratch.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DS-Intro/8.Text_Mining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DSB2/6.Text_Mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81334DAF-567D-A044-A82D-D980E77F6DD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D48DF-C95E-B849-B812-C914353BEB4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10720" xr2:uid="{EA76C76F-82A6-2E4D-914E-96F3EB9CCF2A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10080" activeTab="2" xr2:uid="{EA76C76F-82A6-2E4D-914E-96F3EB9CCF2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="CW" sheetId="3" r:id="rId2"/>
+    <sheet name="HW" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>Hi you have won lottery</t>
   </si>
@@ -94,9 +97,6 @@
     <t>P(lottery | spam)</t>
   </si>
   <si>
-    <t>Congratulations you won lottery</t>
-  </si>
-  <si>
     <t>P(spam)</t>
   </si>
   <si>
@@ -139,16 +139,25 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>tag = spam</t>
-  </si>
-  <si>
-    <t>tag = ham</t>
-  </si>
-  <si>
-    <t>P(C|spam)*P(you|spam)…</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>We are meeting in cabin</t>
+  </si>
+  <si>
+    <t>I have meeting with team</t>
+  </si>
+  <si>
+    <t>Congratulations you received free loan</t>
+  </si>
+  <si>
+    <t>Free home is given to you</t>
+  </si>
+  <si>
+    <t>Get your home loan sanctioned now.</t>
+  </si>
+  <si>
+    <t>New Sentence 2</t>
+  </si>
+  <si>
+    <t>We are meeting on 4th floor</t>
   </si>
 </sst>
 </file>
@@ -559,425 +568,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B02E91-42E3-694F-8F7A-B0C1B3C7B6D1}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF573A3-F004-7447-9D5D-FDFFBACBB246}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickTop="1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <f>B14/$B$8</f>
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>E14/$B$9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" ref="C15:C18" si="0">B15/$B$8</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ref="F15:F18" si="1">E15/$B$9</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7">
-        <f>B18/5</f>
-        <v>0.4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <f>E18/5</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="9">
-        <f>C14*C15*C16*C17*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9">
-        <f>F14*F15*F16*F17*F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <f>(B26+1)/($B$8 + $B$10)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>(E26+1)/($B$9 + $B$10)</f>
-        <v>3.2258064516129031E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:C29" si="2">(B27+1)/($B$8 + $B$10)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F29" si="3">(E27+1)/($B$9 + $B$10)</f>
-        <v>6.4516129032258063E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="9">
-        <f>B30/5</f>
-        <v>0.4</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30" s="6">
-        <f>E30/5</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
-        <f>C26*C27*C28*C29*C30</f>
-        <v>1.4467592592592593E-5</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
-        <f>F26*F27*F28*F29*F30</f>
-        <v>1.2993748923955163E-6</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -987,15 +586,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1054,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1103,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1125,7 +724,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1147,7 +746,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1169,7 +768,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1181,14 +780,14 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <f>2/5</f>
         <v>0.4</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <f>3/5</f>
@@ -1197,41 +796,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" thickBot="1">
       <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
         <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1246,7 +845,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1268,7 +867,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1290,7 +889,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1312,7 +911,7 @@
         <v>0.125</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1324,7 +923,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="9">
@@ -1332,7 +931,7 @@
         <v>0.4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6">
@@ -1357,4 +956,130 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C1E38C-615F-BF4F-B29D-44F045C2C783}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" thickTop="1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>